--- a/files/valuation.xlsx
+++ b/files/valuation.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\frontend playground\69. Website\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05476D-6B3B-44FD-AE94-4019CCD6E8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{204A1E55-EE23-41C3-8E51-1DEBF5131F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FA98C87D-65F7-4337-A438-C3FEE85A9AAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valuation" sheetId="2" r:id="rId1"/>
+    <sheet name="Valuation" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Valuation!$A$3:$F$3</definedName>
+    <definedName name="vivek_powerbi">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Valuation</t>
   </si>
@@ -60,7 +61,344 @@
     <t>cat</t>
   </si>
   <si>
-    <t>Rosenbaum: Valuation</t>
+    <t>Investment Banking: LBOs, M&amp;As, and IPOs (Rosenbaum)</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rosenbaum's Investment Banking: LBOs, M&amp;As and IPOs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---valuation---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Comparables company analysis
+2. Precedent transactions analysis
+3. Discounted cash flow analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---leveraged buyouts---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Key participants
+5. LBO candidates
+6. Economics of LBOs
+7. Exit/monetization strategies
+8. LBO financing structure</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">---LBO analysis---
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. Valuation and LBO model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Cont.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rosenbaum's Investment Banking: LBOs, M&amp;As and IPOs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---Sell Side M&amp;A---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. Auctions
+11. First round
+12. Second round
+13. Negotiations
+14. Closing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">---Buy Side M&amp;A---
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15. Buyer motivation
+16. Acquisition strategies
+17. Financing
+18. Deal structure
+19. Buy-side valuation
+20. Merger consequences analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Cont.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rosenbaum's Investment Banking: LBOs, M&amp;As and IPOs:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---IPOs---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21. Reasons for companies to IPO
+22. Characteristics of strong IPO candidate
+23. Key participants
+24. Key terms</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">---The IPO Process---
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25. Organization and preparation
+26. Due diligence
+27. Marketing and roadshow
+28. Pricing and allocation</t>
+    </r>
   </si>
   <si>
     <t>Accounting items and notation</t>
@@ -129,7 +467,26 @@
     </r>
   </si>
   <si>
-    <t>Cont.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cont.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 CA- confidentiality agreement (M&amp;A)
 DD- Due diligence: a buyer confirms key information presented by the seller. Comb through presented information given
 DA- definitive agreement: a buyer's official final offer and terms. Very complex legal document
@@ -137,6 +494,7 @@
 Book- a "book" of orders or collation.
 RFP- request for proposal. list of topics bookrunners must cover to company to show they are good bookrunners
 Bake-off- event at which bookrunners present response to RFP to company to convince they are good at baking.</t>
+    </r>
   </si>
   <si>
     <t>Comparables Analysis</t>
@@ -482,47 +840,6 @@
       </rPr>
       <t>Stub formula</t>
     </r>
-  </si>
-  <si>
-    <t>Spreading Comps</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Information benchmarked:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ticker, Current Share Price, % of 52 week high, Equity value, Enterprise value, EV/{LTM, NFY, NFY+1 for Sales, EBITDA, EBIT}, LTM EBITDA Margin, Total Debt/EBITDA, Price/{LTM, NFY, NFY+1 for EPS}, EPS g] FOR {Set of comparable companies} FOR {Mean,median,high,low}
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Precedent Transactions</t>
-  </si>
-  <si>
-    <t>DCF</t>
   </si>
   <si>
     <t>Rosenbaum: LBOs</t>
@@ -564,13 +881,25 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">structure of topic:
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>structure of topic:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2868,7 +3197,28 @@
       </rPr>
       <t xml:space="preserve">
 Profitability of the business (core operations)
-specifics:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specifics:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 EBIT- profitability without capital structure and taxes
 EBITDA- core business operations without capital structure and taxes</t>
     </r>
@@ -2881,7 +3231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2923,6 +3273,39 @@
       <u/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3085,7 +3468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3126,6 +3509,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3144,7 +3530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3160,27 +3546,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3211,15 +3597,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1333500</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2933700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>1600200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3229,7 +3615,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DF7C38-C3B4-44AF-908B-E57FF8357F12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E51AEF-329C-48BF-B330-7E86204D6FCC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3284,26 +3670,24 @@
     <sheetNames>
       <sheetName val="Shortcuts"/>
       <sheetName val="Python"/>
+      <sheetName val="SQL"/>
       <sheetName val="R"/>
-      <sheetName val="SQL"/>
-      <sheetName val="VBA"/>
       <sheetName val="PBI_TB"/>
       <sheetName val="LaTeX"/>
-      <sheetName val="ML-TM"/>
       <sheetName val="ML-AN"/>
-      <sheetName val="ML_FAI"/>
+      <sheetName val="ML-AN-DL"/>
+      <sheetName val="ML-F-AI"/>
+      <sheetName val="GH"/>
       <sheetName val="CS"/>
-      <sheetName val="GH"/>
       <sheetName val="FrontEnd"/>
-      <sheetName val="3B1B_SQ"/>
       <sheetName val="Math"/>
-      <sheetName val="Physics"/>
-      <sheetName val="QF"/>
-      <sheetName val="EDHEC"/>
-      <sheetName val="Fin_Books"/>
+      <sheetName val="Phy"/>
+      <sheetName val="Stat"/>
+      <sheetName val="Fin Books"/>
       <sheetName val="BIWS"/>
       <sheetName val="Valuation"/>
-      <sheetName val="Bloomberg"/>
+      <sheetName val="BBG"/>
+      <sheetName val="Misc"/>
     </sheetNames>
     <definedNames>
       <definedName name="Button3_Click"/>
@@ -3329,8 +3713,6 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3353,7 +3735,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3365,7 +3747,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3412,6 +3794,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3447,6 +3846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3598,13 +4014,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B10359-E56E-446D-B127-F7074B9A1A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287EB65E-D7DB-4B21-92E4-C65B61ACDD75}">
   <sheetPr codeName="Sheet46">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:O594"/>
+  <dimension ref="A2:O591"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3613,9 +4031,9 @@
     <col min="3" max="3" width="71.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="80" style="6" customWidth="1"/>
     <col min="5" max="5" width="65.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="32" style="18" customWidth="1"/>
-    <col min="8" max="9" width="32" style="15" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32" style="19" customWidth="1"/>
+    <col min="8" max="9" width="32" style="16" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="27.140625" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" customWidth="1"/>
@@ -3665,7 +4083,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="D4" s="11" t="s">
@@ -3677,30 +4095,30 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="13"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -3711,61 +4129,66 @@
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -3773,152 +4196,168 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="13"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="D13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="13"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="J18" s="13"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -3926,77 +4365,82 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>20</v>
-      </c>
+    <row r="19" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="13"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="20"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="E20" s="6"/>
+    <row r="20" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="13"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="L20" s="20"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="13"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="L21" s="20"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="13"/>
@@ -4004,22 +4448,17 @@
       <c r="I22" s="6"/>
       <c r="J22" s="13"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="19"/>
+      <c r="L22" s="20"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="13"/>
@@ -4027,39 +4466,37 @@
       <c r="I23" s="6"/>
       <c r="J23" s="13"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="20"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
-      <c r="B24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="D24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="13"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="20"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" ht="225" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="13"/>
@@ -4067,55 +4504,65 @@
       <c r="I25" s="6"/>
       <c r="J25" s="13"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="20"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="13"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="20"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="6"/>
-      <c r="D27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+    <row r="27" spans="1:15" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="13"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="20"/>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="13"/>
@@ -4123,46 +4570,37 @@
       <c r="I28" s="6"/>
       <c r="J28" s="13"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="20"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" ht="270" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
-        <v>48</v>
+    <row r="29" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="13"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="20"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="13"/>
@@ -4170,18 +4608,18 @@
       <c r="I30" s="6"/>
       <c r="J30" s="13"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="20"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="13"/>
@@ -4189,18 +4627,21 @@
       <c r="I31" s="6"/>
       <c r="J31" s="13"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="19"/>
+      <c r="L31" s="20"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="13"/>
@@ -4208,37 +4649,34 @@
       <c r="I32" s="6"/>
       <c r="J32" s="13"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="19"/>
+      <c r="L32" s="20"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="7"/>
+    <row r="33" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="6"/>
+      <c r="D33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="13"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="20"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="13"/>
@@ -4246,36 +4684,26 @@
       <c r="I34" s="6"/>
       <c r="J34" s="13"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="19"/>
+      <c r="L34" s="20"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>80</v>
-      </c>
+    <row r="35" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="13"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="13"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="19"/>
+      <c r="L35" s="20"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="6"/>
       <c r="D36" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -4284,45 +4712,62 @@
       <c r="I36" s="6"/>
       <c r="J36" s="13"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="19"/>
+      <c r="L36" s="20"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>1</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="13"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="13"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="19"/>
+      <c r="L37" s="20"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="6"/>
+    <row r="38" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="13"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="13"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="19"/>
+      <c r="L38" s="20"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="6"/>
       <c r="D39" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
@@ -4331,21 +4776,18 @@
       <c r="I39" s="6"/>
       <c r="J39" s="13"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="19"/>
+      <c r="L39" s="20"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -4354,448 +4796,423 @@
       <c r="I40" s="6"/>
       <c r="J40" s="13"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="19"/>
+      <c r="L40" s="20"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>2</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="7"/>
+    <row r="41" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="6"/>
+      <c r="D41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="13"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="20"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="6"/>
-      <c r="D42" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+    <row r="42" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="13"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="19"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D43"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="F43"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="13"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="19"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="6"/>
-      <c r="D44" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="13"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="19"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>1</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45"/>
-      <c r="G45" s="16"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="13"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>2</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46"/>
-      <c r="G46" s="16"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="13"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="13"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="16"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="13"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="19"/>
-    </row>
-    <row r="49" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="16"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="13"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="19"/>
-    </row>
-    <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="13"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="19"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="13"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="19"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="13"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="19"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="6"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="16"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="13"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="13"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="19"/>
-    </row>
-    <row r="55" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="13"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="19"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="16"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="13"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="19"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="13"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="19"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="13"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="19"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="13"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="19"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="13"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="19"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="13"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="19"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="13"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="19"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="13"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="19"/>
+      <c r="L63" s="20"/>
     </row>
     <row r="64" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
+      <c r="C64" s="15"/>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="13"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="19"/>
-    </row>
-    <row r="65" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="13"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="13"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="14"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="13"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="19"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="13"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="19"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="13"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="22"/>
+      <c r="L69" s="25"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="13"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="6"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="13"/>
+      <c r="J71" s="26"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="23"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="13"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="24"/>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="13"/>
@@ -4803,23 +5220,26 @@
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="6">
+        <v>59</v>
+      </c>
       <c r="B74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="25"/>
+      <c r="J74" s="13"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="6">
+        <v>60</v>
+      </c>
       <c r="B75" s="6"/>
-      <c r="E75" s="6"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="13"/>
@@ -4827,111 +5247,112 @@
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="6">
+        <v>61</v>
+      </c>
       <c r="B76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="13"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="13"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B78" s="6"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="6"/>
+      <c r="J78" s="26"/>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B79" s="6"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="6"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="13"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="13"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="25"/>
-      <c r="L81" s="6"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="6"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="13"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="E83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="13"/>
@@ -4939,39 +5360,43 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="13"/>
       <c r="K84" s="6"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>67</v>
-      </c>
-      <c r="B85" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="13"/>
       <c r="K85" s="6"/>
+      <c r="N85" s="29"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>68</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="13"/>
@@ -4979,43 +5404,39 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="16"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="13"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>70</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="B88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="13"/>
       <c r="K88" s="6"/>
-      <c r="N88" s="28"/>
+      <c r="O88" s="29"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>71</v>
-      </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="B89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="13"/>
@@ -5023,12 +5444,12 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="16"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="13"/>
@@ -5036,26 +5457,25 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="16"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="13"/>
       <c r="K91" s="6"/>
-      <c r="O91" s="28"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="16"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="13"/>
@@ -5063,12 +5483,12 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="16"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="13"/>
@@ -5076,12 +5496,12 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="16"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="13"/>
@@ -5089,12 +5509,12 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="16"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="13"/>
@@ -5102,12 +5522,12 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="16"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="13"/>
@@ -5115,12 +5535,12 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="16"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="13"/>
@@ -5128,12 +5548,12 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="16"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="13"/>
@@ -5141,12 +5561,12 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="16"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="13"/>
@@ -5154,12 +5574,12 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="16"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="13"/>
@@ -5167,12 +5587,12 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="16"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="13"/>
@@ -5180,12 +5600,12 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="16"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="13"/>
@@ -5193,12 +5613,12 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B103" s="6"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="16"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="13"/>
@@ -5206,12 +5626,12 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B104" s="6"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="16"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="13"/>
@@ -5219,12 +5639,12 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="6"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="16"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="13"/>
@@ -5232,12 +5652,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B106" s="6"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="16"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="13"/>
@@ -5245,12 +5665,12 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B107" s="6"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="16"/>
+      <c r="G107" s="17"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="13"/>
@@ -5258,116 +5678,116 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B108" s="6"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="16"/>
+      <c r="G108" s="17"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="13"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B109" s="6"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="16"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="6"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B110" s="6"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="16"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="17"/>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B111" s="6"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="16"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="17"/>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>93</v>
-      </c>
-      <c r="B112" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="B112" s="28"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="16"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="7"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J112" s="13"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>94</v>
-      </c>
-      <c r="B113" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B113" s="28"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="16"/>
+      <c r="G113" s="17"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="7"/>
-    </row>
-    <row r="114" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="13"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>95</v>
-      </c>
-      <c r="B114" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B114" s="28"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="17"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="13"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>96</v>
-      </c>
-      <c r="B115" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="B115" s="28"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="16"/>
+      <c r="G115" s="17"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="13"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>97</v>
-      </c>
-      <c r="B116" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="B116" s="6"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="16"/>
+      <c r="G116" s="17"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="13"/>
@@ -5375,12 +5795,12 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>98</v>
-      </c>
-      <c r="B117" s="27"/>
-      <c r="E117" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="E117" s="6"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="16"/>
+      <c r="G117" s="17"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="13"/>
@@ -5388,12 +5808,12 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>99</v>
-      </c>
-      <c r="B118" s="27"/>
-      <c r="E118" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="E118" s="6"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="16"/>
+      <c r="G118" s="17"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="13"/>
@@ -5401,111 +5821,114 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B119" s="6"/>
-      <c r="E119" s="7"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="16"/>
+      <c r="G119" s="17"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="13"/>
       <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="16"/>
+      <c r="G120" s="17"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="13"/>
       <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="16"/>
+      <c r="G121" s="17"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="13"/>
       <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="16"/>
+      <c r="G122" s="17"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="13"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="17"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="13"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="16"/>
+      <c r="G124" s="17"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="13"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="16"/>
+      <c r="G125" s="17"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="13"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
-      <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="16"/>
+      <c r="G126" s="17"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="13"/>
@@ -5514,54 +5937,54 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="16"/>
+      <c r="G127" s="17"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
-      <c r="J127" s="13"/>
+      <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="16"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
-      <c r="J128" s="13"/>
+      <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="16"/>
+      <c r="G129" s="17"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="13"/>
+      <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="16"/>
+      <c r="G130" s="17"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="6"/>
@@ -5570,12 +5993,12 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="16"/>
+      <c r="G131" s="17"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="6"/>
@@ -5584,12 +6007,12 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="16"/>
+      <c r="G132" s="17"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="6"/>
@@ -5598,12 +6021,12 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="16"/>
+      <c r="G133" s="17"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="6"/>
@@ -5612,12 +6035,12 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="16"/>
+      <c r="G134" s="17"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="6"/>
@@ -5626,12 +6049,12 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="16"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="6"/>
@@ -5640,12 +6063,12 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="16"/>
+      <c r="G136" s="17"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="6"/>
@@ -5654,12 +6077,12 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="16"/>
+      <c r="G137" s="17"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="6"/>
@@ -5668,12 +6091,12 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="7"/>
-      <c r="G138" s="16"/>
+      <c r="G138" s="17"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="6"/>
@@ -5682,54 +6105,51 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="16"/>
+      <c r="G139" s="17"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="16"/>
+      <c r="G140" s="17"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="16"/>
+      <c r="G141" s="17"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="16"/>
+      <c r="G142" s="17"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="6"/>
@@ -5737,12 +6157,12 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="16"/>
+      <c r="G143" s="17"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="6"/>
@@ -5750,12 +6170,12 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="16"/>
+      <c r="G144" s="17"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="6"/>
@@ -5763,12 +6183,12 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="16"/>
+      <c r="G145" s="17"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="6"/>
@@ -5776,12 +6196,12 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="7"/>
-      <c r="G146" s="16"/>
+      <c r="G146" s="17"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="6"/>
@@ -5789,12 +6209,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B147" s="6"/>
+      <c r="D147"/>
       <c r="E147" s="6"/>
       <c r="F147" s="7"/>
-      <c r="G147" s="16"/>
+      <c r="G147" s="17"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="6"/>
@@ -5802,12 +6223,13 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B148" s="6"/>
+      <c r="D148"/>
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
-      <c r="G148" s="16"/>
+      <c r="G148" s="17"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="6"/>
@@ -5815,12 +6237,13 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B149" s="6"/>
+      <c r="D149"/>
       <c r="E149" s="6"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="16"/>
+      <c r="G149" s="17"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="6"/>
@@ -5828,13 +6251,13 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B150" s="6"/>
       <c r="D150"/>
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
-      <c r="G150" s="16"/>
+      <c r="G150" s="17"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="6"/>
@@ -5842,13 +6265,13 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B151" s="6"/>
       <c r="D151"/>
       <c r="E151" s="6"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="16"/>
+      <c r="G151" s="17"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="6"/>
@@ -5856,13 +6279,13 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B152" s="6"/>
       <c r="D152"/>
       <c r="E152" s="6"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="16"/>
+      <c r="G152" s="17"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="6"/>
@@ -5870,13 +6293,13 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B153" s="6"/>
       <c r="D153"/>
       <c r="E153" s="6"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="16"/>
+      <c r="G153" s="17"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="6"/>
@@ -5884,13 +6307,12 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B154" s="6"/>
-      <c r="D154"/>
       <c r="E154" s="6"/>
       <c r="F154" s="7"/>
-      <c r="G154" s="16"/>
+      <c r="G154" s="17"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="6"/>
@@ -5898,13 +6320,12 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B155" s="6"/>
-      <c r="D155"/>
       <c r="E155" s="6"/>
       <c r="F155" s="7"/>
-      <c r="G155" s="16"/>
+      <c r="G155" s="17"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="6"/>
@@ -5912,13 +6333,12 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="D156"/>
       <c r="E156" s="6"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="16"/>
+      <c r="G156" s="17"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="6"/>
@@ -5926,12 +6346,12 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="16"/>
+      <c r="G157" s="17"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="6"/>
@@ -5939,12 +6359,12 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="16"/>
+      <c r="G158" s="17"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="6"/>
@@ -5952,12 +6372,12 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="7"/>
-      <c r="G159" s="16"/>
+      <c r="G159" s="17"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="6"/>
@@ -5965,12 +6385,12 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="7"/>
-      <c r="G160" s="16"/>
+      <c r="G160" s="17"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="6"/>
@@ -5978,12 +6398,12 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="16"/>
+      <c r="G161" s="17"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="6"/>
@@ -5991,12 +6411,12 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="7"/>
-      <c r="G162" s="16"/>
+      <c r="G162" s="17"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="6"/>
@@ -6004,12 +6424,12 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="16"/>
+      <c r="G163" s="17"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="6"/>
@@ -6017,12 +6437,12 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>145</v>
-      </c>
-      <c r="B164" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="B164" s="27"/>
       <c r="E164" s="6"/>
       <c r="F164" s="7"/>
-      <c r="G164" s="16"/>
+      <c r="G164" s="17"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="6"/>
@@ -6030,12 +6450,13 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>146</v>
-      </c>
-      <c r="B165" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="18"/>
       <c r="E165" s="6"/>
       <c r="F165" s="7"/>
-      <c r="G165" s="16"/>
+      <c r="G165" s="17"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="6"/>
@@ -6043,12 +6464,12 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="7"/>
-      <c r="G166" s="16"/>
+      <c r="G166" s="17"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="6"/>
@@ -6056,12 +6477,12 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>148</v>
-      </c>
-      <c r="B167" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="B167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="16"/>
+      <c r="G167" s="17"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="6"/>
@@ -6069,13 +6490,12 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>149</v>
-      </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="B168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="7"/>
-      <c r="G168" s="16"/>
+      <c r="G168" s="17"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="6"/>
@@ -6083,12 +6503,12 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="16"/>
+      <c r="G169" s="17"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="6"/>
@@ -6096,12 +6516,12 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="16"/>
+      <c r="G170" s="17"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="6"/>
@@ -6109,12 +6529,12 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="7"/>
-      <c r="G171" s="16"/>
+      <c r="G171" s="17"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="6"/>
@@ -6122,25 +6542,25 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="7"/>
-      <c r="G172" s="16"/>
+      <c r="G172" s="17"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="16"/>
+      <c r="G173" s="17"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="6"/>
@@ -6148,12 +6568,12 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="7"/>
-      <c r="G174" s="16"/>
+      <c r="G174" s="17"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="6"/>
@@ -6161,25 +6581,25 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="16"/>
+      <c r="G175" s="17"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="16"/>
+      <c r="G176" s="17"/>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="6"/>
@@ -6187,12 +6607,12 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="7"/>
-      <c r="G177" s="16"/>
+      <c r="G177" s="17"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="6"/>
@@ -6200,12 +6620,12 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="7"/>
-      <c r="G178" s="16"/>
+      <c r="G178" s="17"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="6"/>
@@ -6213,12 +6633,12 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="7"/>
-      <c r="G179" s="16"/>
+      <c r="G179" s="17"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="6"/>
@@ -6226,12 +6646,12 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="7"/>
-      <c r="G180" s="16"/>
+      <c r="G180" s="17"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="6"/>
@@ -6239,12 +6659,12 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="16"/>
+      <c r="G181" s="17"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="6"/>
@@ -6252,12 +6672,12 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="7"/>
-      <c r="G182" s="16"/>
+      <c r="G182" s="17"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="6"/>
@@ -6265,12 +6685,12 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="7"/>
-      <c r="G183" s="16"/>
+      <c r="G183" s="17"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="6"/>
@@ -6278,12 +6698,12 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="7"/>
-      <c r="G184" s="16"/>
+      <c r="G184" s="17"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="6"/>
@@ -6291,12 +6711,12 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="16"/>
+      <c r="G185" s="17"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="6"/>
@@ -6304,12 +6724,12 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="7"/>
-      <c r="G186" s="16"/>
+      <c r="G186" s="17"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="6"/>
@@ -6317,12 +6737,12 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="7"/>
-      <c r="G187" s="16"/>
+      <c r="G187" s="17"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="6"/>
@@ -6330,12 +6750,12 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="16"/>
+      <c r="G188" s="17"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="6"/>
@@ -6343,12 +6763,12 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="7"/>
-      <c r="G189" s="16"/>
+      <c r="G189" s="17"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="6"/>
@@ -6356,12 +6776,12 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="7"/>
-      <c r="G190" s="16"/>
+      <c r="G190" s="17"/>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="6"/>
@@ -6369,12 +6789,12 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="7"/>
-      <c r="G191" s="16"/>
+      <c r="G191" s="17"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="6"/>
@@ -6382,12 +6802,12 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="7"/>
-      <c r="G192" s="16"/>
+      <c r="G192" s="17"/>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="6"/>
@@ -6395,12 +6815,12 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="7"/>
-      <c r="G193" s="16"/>
+      <c r="G193" s="17"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="6"/>
@@ -6408,692 +6828,695 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="7"/>
-      <c r="G194" s="16"/>
+      <c r="G194" s="17"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
+      <c r="J194" s="31"/>
+      <c r="K194" s="31"/>
+      <c r="L194" s="32"/>
+      <c r="M194" s="32"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="7"/>
-      <c r="G195" s="16"/>
+      <c r="G195" s="17"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
+      <c r="J195" s="31"/>
+      <c r="K195" s="31"/>
+      <c r="L195" s="32"/>
+      <c r="M195" s="32"/>
+      <c r="N195" s="32"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="7"/>
-      <c r="G196" s="16"/>
+      <c r="G196" s="17"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="31"/>
+      <c r="L196" s="32"/>
+      <c r="M196" s="32"/>
+      <c r="N196" s="32"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="16"/>
+      <c r="G197" s="17"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
-      <c r="J197" s="30"/>
-      <c r="K197" s="30"/>
-      <c r="L197" s="31"/>
-      <c r="M197" s="31"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J197" s="31"/>
+      <c r="K197" s="31"/>
+      <c r="L197" s="32"/>
+      <c r="M197" s="32"/>
+      <c r="N197" s="32"/>
+    </row>
+    <row r="198" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>179</v>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="30"/>
-      <c r="K198" s="30"/>
-      <c r="L198" s="31"/>
-      <c r="M198" s="31"/>
-      <c r="N198" s="31"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="31"/>
+      <c r="K198" s="31"/>
+    </row>
+    <row r="199" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>180</v>
-      </c>
-      <c r="B199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="30"/>
-      <c r="K199" s="30"/>
-      <c r="L199" s="31"/>
-      <c r="M199" s="31"/>
-      <c r="N199" s="31"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="31"/>
+    </row>
+    <row r="200" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>181</v>
-      </c>
-      <c r="B200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="30"/>
-      <c r="K200" s="30"/>
-      <c r="L200" s="31"/>
-      <c r="M200" s="31"/>
-      <c r="N200" s="31"/>
-    </row>
-    <row r="201" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
+      <c r="J200" s="31"/>
+      <c r="K200" s="31"/>
+    </row>
+    <row r="201" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>182</v>
-      </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="32"/>
-      <c r="J201" s="30"/>
-      <c r="K201" s="30"/>
-    </row>
-    <row r="202" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
+      <c r="J201" s="31"/>
+      <c r="K201" s="31"/>
+    </row>
+    <row r="202" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>183</v>
-      </c>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="32"/>
-      <c r="J202" s="30"/>
-      <c r="K202" s="30"/>
-    </row>
-    <row r="203" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
+      <c r="J202" s="31"/>
+      <c r="K202" s="31"/>
+    </row>
+    <row r="203" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>184</v>
-      </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="32"/>
-      <c r="J203" s="30"/>
-      <c r="K203" s="30"/>
-    </row>
-    <row r="204" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
+      <c r="J203" s="31"/>
+      <c r="K203" s="31"/>
+    </row>
+    <row r="204" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>185</v>
-      </c>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
-      <c r="J204" s="30"/>
-      <c r="K204" s="30"/>
-    </row>
-    <row r="205" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="31"/>
+    </row>
+    <row r="205" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>186</v>
-      </c>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="32"/>
-      <c r="I205" s="32"/>
-      <c r="J205" s="30"/>
-      <c r="K205" s="30"/>
-    </row>
-    <row r="206" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
+      <c r="J205" s="31"/>
+      <c r="K205" s="31"/>
+    </row>
+    <row r="206" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>187</v>
-      </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
-      <c r="J206" s="30"/>
-      <c r="K206" s="30"/>
-    </row>
-    <row r="207" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="31"/>
+      <c r="K206" s="31"/>
+    </row>
+    <row r="207" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>188</v>
-      </c>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="32"/>
-      <c r="I207" s="32"/>
-      <c r="J207" s="30"/>
-      <c r="K207" s="30"/>
-    </row>
-    <row r="208" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
+      <c r="J207" s="31"/>
+      <c r="K207" s="31"/>
+    </row>
+    <row r="208" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>189</v>
-      </c>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="32"/>
-      <c r="J208" s="30"/>
-      <c r="K208" s="30"/>
-    </row>
-    <row r="209" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="31"/>
+      <c r="K208" s="31"/>
+    </row>
+    <row r="209" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>190</v>
-      </c>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="32"/>
-      <c r="J209" s="30"/>
-      <c r="K209" s="30"/>
-    </row>
-    <row r="210" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
+      <c r="J209" s="31"/>
+      <c r="K209" s="31"/>
+    </row>
+    <row r="210" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>191</v>
-      </c>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="32"/>
-      <c r="I210" s="32"/>
-      <c r="J210" s="30"/>
-      <c r="K210" s="30"/>
-    </row>
-    <row r="211" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="33"/>
+      <c r="J210" s="31"/>
+      <c r="K210" s="31"/>
+    </row>
+    <row r="211" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>192</v>
-      </c>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="32"/>
-      <c r="I211" s="32"/>
-      <c r="J211" s="30"/>
-      <c r="K211" s="30"/>
-    </row>
-    <row r="212" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="31"/>
+    </row>
+    <row r="212" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>193</v>
-      </c>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="32"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="32"/>
-      <c r="J212" s="30"/>
-      <c r="K212" s="30"/>
-    </row>
-    <row r="213" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="33"/>
+      <c r="J212" s="31"/>
+      <c r="K212" s="31"/>
+    </row>
+    <row r="213" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>194</v>
-      </c>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="32"/>
-      <c r="J213" s="30"/>
-      <c r="K213" s="30"/>
-    </row>
-    <row r="214" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="31"/>
+    </row>
+    <row r="214" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>195</v>
-      </c>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="32"/>
-      <c r="I214" s="32"/>
-      <c r="J214" s="30"/>
-      <c r="K214" s="30"/>
-    </row>
-    <row r="215" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="31"/>
+      <c r="K214" s="31"/>
+    </row>
+    <row r="215" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>196</v>
-      </c>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="32"/>
-      <c r="J215" s="30"/>
-      <c r="K215" s="30"/>
-    </row>
-    <row r="216" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="31"/>
+      <c r="K215" s="31"/>
+    </row>
+    <row r="216" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>197</v>
-      </c>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="32"/>
-      <c r="J216" s="30"/>
-      <c r="K216" s="30"/>
-    </row>
-    <row r="217" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="31"/>
+      <c r="K216" s="31"/>
+    </row>
+    <row r="217" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>198</v>
-      </c>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="32"/>
-      <c r="J217" s="30"/>
-      <c r="K217" s="30"/>
-    </row>
-    <row r="218" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="B217" s="27"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
+      <c r="J217" s="31"/>
+      <c r="K217" s="31"/>
+    </row>
+    <row r="218" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>199</v>
-      </c>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
-      <c r="J218" s="30"/>
-      <c r="K218" s="30"/>
-    </row>
-    <row r="219" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="31"/>
+      <c r="K218" s="31"/>
+    </row>
+    <row r="219" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>200</v>
-      </c>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="32"/>
-      <c r="J219" s="30"/>
-      <c r="K219" s="30"/>
-    </row>
-    <row r="220" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="31"/>
+      <c r="K219" s="31"/>
+    </row>
+    <row r="220" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>201</v>
-      </c>
-      <c r="B220" s="26"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="32"/>
-      <c r="J220" s="30"/>
-      <c r="K220" s="30"/>
-    </row>
-    <row r="221" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220"/>
+      <c r="M220"/>
+    </row>
+    <row r="221" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>202</v>
-      </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="32"/>
-      <c r="I221" s="32"/>
-      <c r="J221" s="30"/>
-      <c r="K221" s="30"/>
-    </row>
-    <row r="222" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+    </row>
+    <row r="222" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>203</v>
-      </c>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="32"/>
-      <c r="I222" s="32"/>
-      <c r="J222" s="30"/>
-      <c r="K222" s="30"/>
-    </row>
-    <row r="223" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="B222" s="27"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+    </row>
+    <row r="223" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>204</v>
-      </c>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="32"/>
-      <c r="I223" s="32"/>
+        <v>207</v>
+      </c>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223"/>
       <c r="M223"/>
-    </row>
-    <row r="224" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N223"/>
+    </row>
+    <row r="224" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>205</v>
-      </c>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="32"/>
+        <v>208</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
-      <c r="L224"/>
-      <c r="M224"/>
-      <c r="N224"/>
-    </row>
-    <row r="225" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>206</v>
-      </c>
-      <c r="B225" s="26"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="32"/>
-      <c r="I225" s="32"/>
+        <v>209</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="15"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="L225"/>
-      <c r="M225"/>
-      <c r="N225"/>
-    </row>
-    <row r="226" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>207</v>
-      </c>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="32"/>
-      <c r="I226" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="15"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
-      <c r="L226"/>
-      <c r="M226"/>
-      <c r="N226"/>
-    </row>
-    <row r="227" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B227" s="6"/>
+      <c r="C227" s="15"/>
       <c r="E227" s="6"/>
       <c r="F227" s="7"/>
-      <c r="G227" s="16"/>
+      <c r="G227" s="17"/>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B228" s="6"/>
-      <c r="C228" s="14"/>
       <c r="E228" s="6"/>
       <c r="F228" s="7"/>
-      <c r="G228" s="16"/>
+      <c r="G228" s="17"/>
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B229" s="6"/>
-      <c r="C229" s="14"/>
       <c r="E229" s="6"/>
       <c r="F229" s="7"/>
-      <c r="G229" s="16"/>
+      <c r="G229" s="17"/>
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B230" s="6"/>
-      <c r="C230" s="14"/>
+      <c r="C230" s="15"/>
       <c r="E230" s="6"/>
       <c r="F230" s="7"/>
-      <c r="G230" s="16"/>
+      <c r="G230" s="17"/>
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="7"/>
-      <c r="G231" s="16"/>
+      <c r="G231" s="17"/>
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="7"/>
-      <c r="G232" s="16"/>
+      <c r="G232" s="17"/>
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B233" s="6"/>
-      <c r="C233" s="14"/>
       <c r="E233" s="6"/>
       <c r="F233" s="7"/>
-      <c r="G233" s="16"/>
+      <c r="G233" s="17"/>
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B234" s="6"/>
+      <c r="C234" s="15"/>
       <c r="E234" s="6"/>
       <c r="F234" s="7"/>
-      <c r="G234" s="16"/>
+      <c r="G234" s="17"/>
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B235" s="6"/>
+      <c r="C235" s="15"/>
       <c r="E235" s="6"/>
       <c r="F235" s="7"/>
-      <c r="G235" s="16"/>
+      <c r="G235" s="17"/>
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B236" s="6"/>
+      <c r="C236" s="15"/>
       <c r="E236" s="6"/>
       <c r="F236" s="7"/>
-      <c r="G236" s="16"/>
+      <c r="G236" s="17"/>
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B237" s="6"/>
-      <c r="C237" s="14"/>
+      <c r="C237" s="15"/>
       <c r="E237" s="6"/>
       <c r="F237" s="7"/>
-      <c r="G237" s="16"/>
+      <c r="G237" s="17"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B238" s="6"/>
-      <c r="C238" s="14"/>
+      <c r="C238" s="15"/>
       <c r="E238" s="6"/>
       <c r="F238" s="7"/>
-      <c r="G238" s="16"/>
+      <c r="G238" s="17"/>
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
     </row>
-    <row r="239" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B239" s="6"/>
-      <c r="C239" s="14"/>
+      <c r="C239" s="15"/>
       <c r="E239" s="6"/>
       <c r="F239" s="7"/>
-      <c r="G239" s="16"/>
+      <c r="G239" s="17"/>
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B240" s="6"/>
-      <c r="C240" s="14"/>
+      <c r="C240" s="15"/>
       <c r="E240" s="6"/>
       <c r="F240" s="7"/>
-      <c r="G240" s="16"/>
+      <c r="G240" s="17"/>
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
       <c r="J240" s="6"/>
@@ -7101,13 +7524,13 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B241" s="6"/>
-      <c r="C241" s="14"/>
+      <c r="C241" s="15"/>
       <c r="E241" s="6"/>
       <c r="F241" s="7"/>
-      <c r="G241" s="16"/>
+      <c r="G241" s="17"/>
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="6"/>
@@ -7115,13 +7538,13 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B242" s="6"/>
-      <c r="C242" s="14"/>
+      <c r="C242" s="15"/>
       <c r="E242" s="6"/>
       <c r="F242" s="7"/>
-      <c r="G242" s="16"/>
+      <c r="G242" s="17"/>
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
       <c r="J242" s="6"/>
@@ -7129,13 +7552,12 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B243" s="6"/>
-      <c r="C243" s="14"/>
       <c r="E243" s="6"/>
       <c r="F243" s="7"/>
-      <c r="G243" s="16"/>
+      <c r="G243" s="17"/>
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="6"/>
@@ -7143,13 +7565,12 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B244" s="6"/>
-      <c r="C244" s="14"/>
       <c r="E244" s="6"/>
       <c r="F244" s="7"/>
-      <c r="G244" s="16"/>
+      <c r="G244" s="17"/>
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
       <c r="J244" s="6"/>
@@ -7157,13 +7578,12 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6"/>
-      <c r="C245" s="14"/>
       <c r="E245" s="6"/>
       <c r="F245" s="7"/>
-      <c r="G245" s="16"/>
+      <c r="G245" s="17"/>
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
       <c r="J245" s="6"/>
@@ -7171,12 +7591,12 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="7"/>
-      <c r="G246" s="16"/>
+      <c r="G246" s="17"/>
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
       <c r="J246" s="6"/>
@@ -7184,12 +7604,12 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="7"/>
-      <c r="G247" s="16"/>
+      <c r="G247" s="17"/>
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
       <c r="J247" s="6"/>
@@ -7197,12 +7617,12 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="7"/>
-      <c r="G248" s="16"/>
+      <c r="G248" s="17"/>
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
       <c r="J248" s="6"/>
@@ -7210,90 +7630,92 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="7"/>
-      <c r="G249" s="16"/>
+      <c r="G249" s="17"/>
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="7"/>
-      <c r="G250" s="16"/>
+      <c r="G250" s="17"/>
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="7"/>
-      <c r="G251" s="16"/>
+      <c r="G251" s="17"/>
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="7"/>
-      <c r="G252" s="16"/>
+      <c r="G252" s="17"/>
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
     </row>
-    <row r="253" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="7"/>
-      <c r="G253" s="16"/>
+      <c r="G253" s="17"/>
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
     </row>
-    <row r="254" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B254" s="6"/>
+      <c r="C254" s="15"/>
       <c r="E254" s="6"/>
       <c r="F254" s="7"/>
-      <c r="G254" s="16"/>
+      <c r="G254" s="17"/>
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
     </row>
-    <row r="255" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B255" s="6"/>
+      <c r="C255" s="15"/>
       <c r="E255" s="6"/>
       <c r="F255" s="7"/>
-      <c r="G255" s="16"/>
+      <c r="G255" s="17"/>
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
       <c r="J255" s="6"/>
@@ -7301,12 +7723,13 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B256" s="6"/>
+      <c r="C256" s="15"/>
       <c r="E256" s="6"/>
       <c r="F256" s="7"/>
-      <c r="G256" s="16"/>
+      <c r="G256" s="17"/>
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
       <c r="J256" s="6"/>
@@ -7314,13 +7737,12 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B257" s="6"/>
-      <c r="C257" s="14"/>
       <c r="E257" s="6"/>
       <c r="F257" s="7"/>
-      <c r="G257" s="16"/>
+      <c r="G257" s="17"/>
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
       <c r="J257" s="6"/>
@@ -7328,27 +7750,26 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B258" s="6"/>
-      <c r="C258" s="14"/>
+      <c r="C258" s="15"/>
       <c r="E258" s="6"/>
       <c r="F258" s="7"/>
-      <c r="G258" s="16"/>
+      <c r="G258" s="17"/>
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B259" s="6"/>
-      <c r="C259" s="14"/>
       <c r="E259" s="6"/>
       <c r="F259" s="7"/>
-      <c r="G259" s="16"/>
+      <c r="G259" s="17"/>
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
       <c r="J259" s="6"/>
@@ -7356,12 +7777,12 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="7"/>
-      <c r="G260" s="16"/>
+      <c r="G260" s="17"/>
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
       <c r="J260" s="6"/>
@@ -7369,26 +7790,27 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B261" s="6"/>
-      <c r="C261" s="14"/>
+      <c r="C261" s="15"/>
       <c r="E261" s="6"/>
       <c r="F261" s="7"/>
-      <c r="G261" s="16"/>
+      <c r="G261" s="17"/>
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
     </row>
-    <row r="262" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B262" s="6"/>
+      <c r="C262" s="15"/>
       <c r="E262" s="6"/>
       <c r="F262" s="7"/>
-      <c r="G262" s="16"/>
+      <c r="G262" s="17"/>
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
       <c r="J262" s="6"/>
@@ -7396,12 +7818,12 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="7"/>
-      <c r="G263" s="16"/>
+      <c r="G263" s="17"/>
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
       <c r="J263" s="6"/>
@@ -7409,13 +7831,12 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="14"/>
       <c r="E264" s="6"/>
       <c r="F264" s="7"/>
-      <c r="G264" s="16"/>
+      <c r="G264" s="17"/>
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
       <c r="J264" s="6"/>
@@ -7423,13 +7844,12 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B265" s="6"/>
-      <c r="C265" s="14"/>
       <c r="E265" s="6"/>
       <c r="F265" s="7"/>
-      <c r="G265" s="16"/>
+      <c r="G265" s="17"/>
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
       <c r="J265" s="6"/>
@@ -7437,12 +7857,12 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="7"/>
-      <c r="G266" s="16"/>
+      <c r="G266" s="17"/>
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
       <c r="J266" s="6"/>
@@ -7450,12 +7870,13 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B267" s="6"/>
+      <c r="C267" s="15"/>
       <c r="E267" s="6"/>
       <c r="F267" s="7"/>
-      <c r="G267" s="16"/>
+      <c r="G267" s="17"/>
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
       <c r="J267" s="6"/>
@@ -7463,12 +7884,13 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B268" s="6"/>
+      <c r="C268" s="15"/>
       <c r="E268" s="6"/>
       <c r="F268" s="7"/>
-      <c r="G268" s="16"/>
+      <c r="G268" s="17"/>
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
       <c r="J268" s="6"/>
@@ -7476,12 +7898,12 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="7"/>
-      <c r="G269" s="16"/>
+      <c r="G269" s="17"/>
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
       <c r="J269" s="6"/>
@@ -7489,13 +7911,13 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B270" s="6"/>
-      <c r="C270" s="14"/>
+      <c r="C270" s="15"/>
       <c r="E270" s="6"/>
       <c r="F270" s="7"/>
-      <c r="G270" s="16"/>
+      <c r="G270" s="17"/>
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
       <c r="J270" s="6"/>
@@ -7503,13 +7925,12 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B271" s="6"/>
-      <c r="C271" s="14"/>
       <c r="E271" s="6"/>
       <c r="F271" s="7"/>
-      <c r="G271" s="16"/>
+      <c r="G271" s="17"/>
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
       <c r="J271" s="6"/>
@@ -7517,12 +7938,13 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B272" s="6"/>
+      <c r="C272" s="15"/>
       <c r="E272" s="6"/>
       <c r="F272" s="7"/>
-      <c r="G272" s="16"/>
+      <c r="G272" s="17"/>
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
       <c r="J272" s="6"/>
@@ -7530,13 +7952,12 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B273" s="6"/>
-      <c r="C273" s="14"/>
       <c r="E273" s="6"/>
       <c r="F273" s="7"/>
-      <c r="G273" s="16"/>
+      <c r="G273" s="17"/>
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
       <c r="J273" s="6"/>
@@ -7544,12 +7965,12 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="7"/>
-      <c r="G274" s="16"/>
+      <c r="G274" s="17"/>
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
       <c r="J274" s="6"/>
@@ -7557,13 +7978,12 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B275" s="6"/>
-      <c r="C275" s="14"/>
       <c r="E275" s="6"/>
       <c r="F275" s="7"/>
-      <c r="G275" s="16"/>
+      <c r="G275" s="17"/>
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
       <c r="J275" s="6"/>
@@ -7571,12 +7991,12 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="7"/>
-      <c r="G276" s="16"/>
+      <c r="G276" s="17"/>
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
       <c r="J276" s="6"/>
@@ -7584,12 +8004,12 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="7"/>
-      <c r="G277" s="16"/>
+      <c r="G277" s="17"/>
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
       <c r="J277" s="6"/>
@@ -7597,12 +8017,12 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="7"/>
-      <c r="G278" s="16"/>
+      <c r="G278" s="17"/>
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
       <c r="J278" s="6"/>
@@ -7610,12 +8030,12 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="7"/>
-      <c r="G279" s="16"/>
+      <c r="G279" s="17"/>
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
       <c r="J279" s="6"/>
@@ -7623,12 +8043,12 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="7"/>
-      <c r="G280" s="16"/>
+      <c r="G280" s="17"/>
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
       <c r="J280" s="6"/>
@@ -7636,12 +8056,12 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="7"/>
-      <c r="G281" s="16"/>
+      <c r="G281" s="17"/>
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
       <c r="J281" s="6"/>
@@ -7649,12 +8069,12 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="7"/>
-      <c r="G282" s="16"/>
+      <c r="G282" s="17"/>
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
       <c r="J282" s="6"/>
@@ -7662,12 +8082,12 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="7"/>
-      <c r="G283" s="16"/>
+      <c r="G283" s="17"/>
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
       <c r="J283" s="6"/>
@@ -7675,12 +8095,12 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="7"/>
-      <c r="G284" s="16"/>
+      <c r="G284" s="17"/>
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
       <c r="J284" s="6"/>
@@ -7688,12 +8108,12 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="7"/>
-      <c r="G285" s="16"/>
+      <c r="G285" s="17"/>
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
       <c r="J285" s="6"/>
@@ -7701,52 +8121,46 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B286" s="6"/>
+      <c r="C286" s="15"/>
       <c r="E286" s="6"/>
       <c r="F286" s="7"/>
-      <c r="G286" s="16"/>
+      <c r="G286" s="17"/>
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
       <c r="J286" s="6"/>
       <c r="K286" s="6"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="6">
-        <v>268</v>
-      </c>
+      <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="7"/>
-      <c r="G287" s="16"/>
+      <c r="G287" s="17"/>
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="6">
-        <v>269</v>
-      </c>
+      <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="7"/>
-      <c r="G288" s="16"/>
+      <c r="G288" s="17"/>
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
       <c r="J288" s="6"/>
       <c r="K288" s="6"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="6">
-        <v>270</v>
-      </c>
+      <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="14"/>
       <c r="E289" s="6"/>
       <c r="F289" s="7"/>
-      <c r="G289" s="16"/>
+      <c r="G289" s="17"/>
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
       <c r="J289" s="6"/>
@@ -7757,7 +8171,7 @@
       <c r="B290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="7"/>
-      <c r="G290" s="16"/>
+      <c r="G290" s="17"/>
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
       <c r="J290" s="6"/>
@@ -7768,7 +8182,7 @@
       <c r="B291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="7"/>
-      <c r="G291" s="16"/>
+      <c r="G291" s="17"/>
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="6"/>
@@ -7779,7 +8193,7 @@
       <c r="B292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="7"/>
-      <c r="G292" s="16"/>
+      <c r="G292" s="17"/>
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
       <c r="J292" s="6"/>
@@ -7790,7 +8204,7 @@
       <c r="B293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="7"/>
-      <c r="G293" s="16"/>
+      <c r="G293" s="17"/>
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
       <c r="J293" s="6"/>
@@ -7801,7 +8215,7 @@
       <c r="B294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="7"/>
-      <c r="G294" s="16"/>
+      <c r="G294" s="17"/>
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
       <c r="J294" s="6"/>
@@ -7812,7 +8226,7 @@
       <c r="B295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="7"/>
-      <c r="G295" s="16"/>
+      <c r="G295" s="17"/>
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
       <c r="J295" s="6"/>
@@ -7823,7 +8237,7 @@
       <c r="B296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="7"/>
-      <c r="G296" s="16"/>
+      <c r="G296" s="17"/>
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
       <c r="J296" s="6"/>
@@ -7834,7 +8248,7 @@
       <c r="B297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="7"/>
-      <c r="G297" s="16"/>
+      <c r="G297" s="17"/>
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
       <c r="J297" s="6"/>
@@ -7845,7 +8259,7 @@
       <c r="B298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="7"/>
-      <c r="G298" s="16"/>
+      <c r="G298" s="17"/>
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
       <c r="J298" s="6"/>
@@ -7856,7 +8270,7 @@
       <c r="B299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="7"/>
-      <c r="G299" s="16"/>
+      <c r="G299" s="17"/>
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
       <c r="J299" s="6"/>
@@ -7867,7 +8281,7 @@
       <c r="B300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="7"/>
-      <c r="G300" s="16"/>
+      <c r="G300" s="17"/>
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
       <c r="J300" s="6"/>
@@ -7878,7 +8292,7 @@
       <c r="B301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="7"/>
-      <c r="G301" s="16"/>
+      <c r="G301" s="17"/>
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
       <c r="J301" s="6"/>
@@ -7889,7 +8303,7 @@
       <c r="B302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="7"/>
-      <c r="G302" s="16"/>
+      <c r="G302" s="17"/>
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
       <c r="J302" s="6"/>
@@ -7900,7 +8314,7 @@
       <c r="B303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="7"/>
-      <c r="G303" s="16"/>
+      <c r="G303" s="17"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
       <c r="J303" s="6"/>
@@ -7911,360 +8325,360 @@
       <c r="B304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="7"/>
-      <c r="G304" s="16"/>
+      <c r="G304" s="17"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="7"/>
-      <c r="G305" s="16"/>
+      <c r="G305" s="17"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="7"/>
-      <c r="G306" s="16"/>
+      <c r="G306" s="17"/>
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="7"/>
-      <c r="G307" s="16"/>
+      <c r="G307" s="17"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="7"/>
-      <c r="G308" s="16"/>
+      <c r="G308" s="17"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
       <c r="J308" s="6"/>
       <c r="K308" s="6"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="7"/>
-      <c r="G309" s="16"/>
+      <c r="G309" s="17"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="7"/>
-      <c r="G310" s="16"/>
+      <c r="G310" s="17"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
       <c r="J310" s="6"/>
       <c r="K310" s="6"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="7"/>
-      <c r="G311" s="16"/>
+      <c r="G311" s="17"/>
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="7"/>
-      <c r="G312" s="16"/>
+      <c r="G312" s="17"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
       <c r="J312" s="6"/>
       <c r="K312" s="6"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="7"/>
-      <c r="G313" s="16"/>
+      <c r="G313" s="17"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="7"/>
-      <c r="G314" s="16"/>
+      <c r="G314" s="17"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="7"/>
-      <c r="G315" s="16"/>
+      <c r="G315" s="17"/>
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="7"/>
-      <c r="G316" s="16"/>
+      <c r="G316" s="17"/>
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
       <c r="J316" s="6"/>
       <c r="K316" s="6"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="7"/>
-      <c r="G317" s="16"/>
+      <c r="G317" s="17"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="16"/>
+      <c r="G318" s="17"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="6"/>
       <c r="K318" s="6"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="7"/>
-      <c r="G319" s="16"/>
+      <c r="G319" s="17"/>
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L319" s="6"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="7"/>
-      <c r="G320" s="16"/>
+      <c r="G320" s="17"/>
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="7"/>
-      <c r="G321" s="16"/>
+      <c r="G321" s="17"/>
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="7"/>
-      <c r="G322" s="16"/>
+      <c r="G322" s="17"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="6"/>
       <c r="K322" s="6"/>
-      <c r="L322" s="6"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="16"/>
+      <c r="G323" s="17"/>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="16"/>
+      <c r="G324" s="17"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="7"/>
-      <c r="G325" s="16"/>
+      <c r="G325" s="17"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="7"/>
-      <c r="G326" s="16"/>
+      <c r="G326" s="17"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
       <c r="J326" s="6"/>
       <c r="K326" s="6"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="16"/>
+      <c r="G327" s="17"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="16"/>
+      <c r="G328" s="17"/>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
       <c r="J328" s="6"/>
       <c r="K328" s="6"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="16"/>
+      <c r="G329" s="17"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="16"/>
+      <c r="G330" s="17"/>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
       <c r="J330" s="6"/>
       <c r="K330" s="6"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="16"/>
+      <c r="G331" s="17"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="16"/>
+      <c r="G332" s="17"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="7"/>
-      <c r="G333" s="16"/>
+      <c r="G333" s="17"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="16"/>
+      <c r="G334" s="17"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
       <c r="J334" s="6"/>
       <c r="K334" s="6"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="16"/>
+      <c r="G335" s="17"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="7"/>
-      <c r="G336" s="16"/>
+      <c r="G336" s="17"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
       <c r="J336" s="6"/>
@@ -8275,7 +8689,7 @@
       <c r="B337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="7"/>
-      <c r="G337" s="16"/>
+      <c r="G337" s="17"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
       <c r="J337" s="6"/>
@@ -8286,7 +8700,7 @@
       <c r="B338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="16"/>
+      <c r="G338" s="17"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
       <c r="J338" s="6"/>
@@ -8297,7 +8711,7 @@
       <c r="B339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="7"/>
-      <c r="G339" s="16"/>
+      <c r="G339" s="17"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
       <c r="J339" s="6"/>
@@ -8308,7 +8722,7 @@
       <c r="B340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="7"/>
-      <c r="G340" s="16"/>
+      <c r="G340" s="17"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
       <c r="J340" s="6"/>
@@ -8319,7 +8733,7 @@
       <c r="B341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="16"/>
+      <c r="G341" s="17"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
       <c r="J341" s="6"/>
@@ -8330,7 +8744,7 @@
       <c r="B342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="16"/>
+      <c r="G342" s="17"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="6"/>
@@ -8341,7 +8755,7 @@
       <c r="B343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="16"/>
+      <c r="G343" s="17"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
       <c r="J343" s="6"/>
@@ -8352,7 +8766,7 @@
       <c r="B344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="16"/>
+      <c r="G344" s="17"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
       <c r="J344" s="6"/>
@@ -8363,7 +8777,7 @@
       <c r="B345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="16"/>
+      <c r="G345" s="17"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
       <c r="J345" s="6"/>
@@ -8374,7 +8788,7 @@
       <c r="B346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="16"/>
+      <c r="G346" s="17"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
       <c r="J346" s="6"/>
@@ -8385,7 +8799,7 @@
       <c r="B347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="7"/>
-      <c r="G347" s="16"/>
+      <c r="G347" s="17"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
       <c r="J347" s="6"/>
@@ -8396,7 +8810,7 @@
       <c r="B348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="16"/>
+      <c r="G348" s="17"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
       <c r="J348" s="6"/>
@@ -8407,7 +8821,7 @@
       <c r="B349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="16"/>
+      <c r="G349" s="17"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
       <c r="J349" s="6"/>
@@ -8418,7 +8832,7 @@
       <c r="B350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="7"/>
-      <c r="G350" s="16"/>
+      <c r="G350" s="17"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
       <c r="J350" s="6"/>
@@ -8429,7 +8843,7 @@
       <c r="B351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="16"/>
+      <c r="G351" s="17"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="J351" s="6"/>
@@ -8440,7 +8854,7 @@
       <c r="B352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="16"/>
+      <c r="G352" s="17"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
       <c r="J352" s="6"/>
@@ -8451,7 +8865,7 @@
       <c r="B353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="7"/>
-      <c r="G353" s="16"/>
+      <c r="G353" s="17"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
       <c r="J353" s="6"/>
@@ -8462,7 +8876,7 @@
       <c r="B354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="7"/>
-      <c r="G354" s="16"/>
+      <c r="G354" s="17"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
       <c r="J354" s="6"/>
@@ -8473,7 +8887,7 @@
       <c r="B355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="16"/>
+      <c r="G355" s="17"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
       <c r="J355" s="6"/>
@@ -8484,7 +8898,7 @@
       <c r="B356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="16"/>
+      <c r="G356" s="17"/>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
       <c r="J356" s="6"/>
@@ -8495,7 +8909,7 @@
       <c r="B357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="16"/>
+      <c r="G357" s="17"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
       <c r="J357" s="6"/>
@@ -8506,7 +8920,7 @@
       <c r="B358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="16"/>
+      <c r="G358" s="17"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
       <c r="J358" s="6"/>
@@ -8517,7 +8931,7 @@
       <c r="B359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="16"/>
+      <c r="G359" s="17"/>
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
       <c r="J359" s="6"/>
@@ -8528,7 +8942,7 @@
       <c r="B360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="7"/>
-      <c r="G360" s="16"/>
+      <c r="G360" s="17"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
       <c r="J360" s="6"/>
@@ -8539,7 +8953,7 @@
       <c r="B361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="7"/>
-      <c r="G361" s="16"/>
+      <c r="G361" s="17"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
       <c r="J361" s="6"/>
@@ -8550,7 +8964,7 @@
       <c r="B362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="7"/>
-      <c r="G362" s="16"/>
+      <c r="G362" s="17"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
       <c r="J362" s="6"/>
@@ -8561,7 +8975,7 @@
       <c r="B363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="16"/>
+      <c r="G363" s="17"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
       <c r="J363" s="6"/>
@@ -8572,7 +8986,7 @@
       <c r="B364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="7"/>
-      <c r="G364" s="16"/>
+      <c r="G364" s="17"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="6"/>
@@ -8583,7 +8997,7 @@
       <c r="B365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="7"/>
-      <c r="G365" s="16"/>
+      <c r="G365" s="17"/>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
       <c r="J365" s="6"/>
@@ -8594,7 +9008,7 @@
       <c r="B366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="7"/>
-      <c r="G366" s="16"/>
+      <c r="G366" s="17"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
       <c r="J366" s="6"/>
@@ -8605,7 +9019,7 @@
       <c r="B367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="7"/>
-      <c r="G367" s="16"/>
+      <c r="G367" s="17"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
       <c r="J367" s="6"/>
@@ -8616,7 +9030,7 @@
       <c r="B368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="7"/>
-      <c r="G368" s="16"/>
+      <c r="G368" s="17"/>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
       <c r="J368" s="6"/>
@@ -8627,7 +9041,7 @@
       <c r="B369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="7"/>
-      <c r="G369" s="16"/>
+      <c r="G369" s="17"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
       <c r="J369" s="6"/>
@@ -8638,7 +9052,7 @@
       <c r="B370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="16"/>
+      <c r="G370" s="17"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
       <c r="J370" s="6"/>
@@ -8649,7 +9063,7 @@
       <c r="B371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="7"/>
-      <c r="G371" s="16"/>
+      <c r="G371" s="17"/>
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
       <c r="J371" s="6"/>
@@ -8660,7 +9074,7 @@
       <c r="B372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="16"/>
+      <c r="G372" s="17"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
       <c r="J372" s="6"/>
@@ -8671,7 +9085,7 @@
       <c r="B373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="7"/>
-      <c r="G373" s="16"/>
+      <c r="G373" s="17"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
       <c r="J373" s="6"/>
@@ -8682,7 +9096,7 @@
       <c r="B374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="7"/>
-      <c r="G374" s="16"/>
+      <c r="G374" s="17"/>
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
       <c r="J374" s="6"/>
@@ -8693,7 +9107,7 @@
       <c r="B375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="7"/>
-      <c r="G375" s="16"/>
+      <c r="G375" s="17"/>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
       <c r="J375" s="6"/>
@@ -8704,7 +9118,7 @@
       <c r="B376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="16"/>
+      <c r="G376" s="17"/>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="6"/>
@@ -8715,7 +9129,7 @@
       <c r="B377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="7"/>
-      <c r="G377" s="16"/>
+      <c r="G377" s="17"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
       <c r="J377" s="6"/>
@@ -8726,7 +9140,7 @@
       <c r="B378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="7"/>
-      <c r="G378" s="16"/>
+      <c r="G378" s="17"/>
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
       <c r="J378" s="6"/>
@@ -8737,7 +9151,7 @@
       <c r="B379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="7"/>
-      <c r="G379" s="16"/>
+      <c r="G379" s="17"/>
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
       <c r="J379" s="6"/>
@@ -8748,7 +9162,7 @@
       <c r="B380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="7"/>
-      <c r="G380" s="16"/>
+      <c r="G380" s="17"/>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
       <c r="J380" s="6"/>
@@ -8759,7 +9173,7 @@
       <c r="B381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="7"/>
-      <c r="G381" s="16"/>
+      <c r="G381" s="17"/>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="6"/>
@@ -8770,7 +9184,7 @@
       <c r="B382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="16"/>
+      <c r="G382" s="17"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
       <c r="J382" s="6"/>
@@ -8781,7 +9195,7 @@
       <c r="B383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="16"/>
+      <c r="G383" s="17"/>
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
       <c r="J383" s="6"/>
@@ -8792,7 +9206,7 @@
       <c r="B384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="7"/>
-      <c r="G384" s="16"/>
+      <c r="G384" s="17"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
       <c r="J384" s="6"/>
@@ -8803,7 +9217,7 @@
       <c r="B385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="7"/>
-      <c r="G385" s="16"/>
+      <c r="G385" s="17"/>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
       <c r="J385" s="6"/>
@@ -8814,7 +9228,7 @@
       <c r="B386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="7"/>
-      <c r="G386" s="16"/>
+      <c r="G386" s="17"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
       <c r="J386" s="6"/>
@@ -8825,7 +9239,7 @@
       <c r="B387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="7"/>
-      <c r="G387" s="16"/>
+      <c r="G387" s="17"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
       <c r="J387" s="6"/>
@@ -8836,7 +9250,7 @@
       <c r="B388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="7"/>
-      <c r="G388" s="16"/>
+      <c r="G388" s="17"/>
       <c r="H388" s="7"/>
       <c r="I388" s="7"/>
       <c r="J388" s="6"/>
@@ -8847,7 +9261,7 @@
       <c r="B389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="7"/>
-      <c r="G389" s="16"/>
+      <c r="G389" s="17"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
       <c r="J389" s="6"/>
@@ -8858,7 +9272,7 @@
       <c r="B390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="7"/>
-      <c r="G390" s="16"/>
+      <c r="G390" s="17"/>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
       <c r="J390" s="6"/>
@@ -8869,7 +9283,7 @@
       <c r="B391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="7"/>
-      <c r="G391" s="16"/>
+      <c r="G391" s="17"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
       <c r="J391" s="6"/>
@@ -8880,7 +9294,7 @@
       <c r="B392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="7"/>
-      <c r="G392" s="16"/>
+      <c r="G392" s="17"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="6"/>
@@ -8891,7 +9305,7 @@
       <c r="B393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="7"/>
-      <c r="G393" s="16"/>
+      <c r="G393" s="17"/>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
       <c r="J393" s="6"/>
@@ -8902,7 +9316,7 @@
       <c r="B394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="7"/>
-      <c r="G394" s="16"/>
+      <c r="G394" s="17"/>
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
       <c r="J394" s="6"/>
@@ -8913,7 +9327,7 @@
       <c r="B395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="7"/>
-      <c r="G395" s="16"/>
+      <c r="G395" s="17"/>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
       <c r="J395" s="6"/>
@@ -8924,7 +9338,7 @@
       <c r="B396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="7"/>
-      <c r="G396" s="16"/>
+      <c r="G396" s="17"/>
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
       <c r="J396" s="6"/>
@@ -8935,7 +9349,7 @@
       <c r="B397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="7"/>
-      <c r="G397" s="16"/>
+      <c r="G397" s="17"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
       <c r="J397" s="6"/>
@@ -8946,7 +9360,7 @@
       <c r="B398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="7"/>
-      <c r="G398" s="16"/>
+      <c r="G398" s="17"/>
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
       <c r="J398" s="6"/>
@@ -8957,7 +9371,7 @@
       <c r="B399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="7"/>
-      <c r="G399" s="16"/>
+      <c r="G399" s="17"/>
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
       <c r="J399" s="6"/>
@@ -8968,7 +9382,7 @@
       <c r="B400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="7"/>
-      <c r="G400" s="16"/>
+      <c r="G400" s="17"/>
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
       <c r="J400" s="6"/>
@@ -8979,7 +9393,7 @@
       <c r="B401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="7"/>
-      <c r="G401" s="16"/>
+      <c r="G401" s="17"/>
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
       <c r="J401" s="6"/>
@@ -8990,7 +9404,7 @@
       <c r="B402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="7"/>
-      <c r="G402" s="16"/>
+      <c r="G402" s="17"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
       <c r="J402" s="6"/>
@@ -9001,7 +9415,7 @@
       <c r="B403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="7"/>
-      <c r="G403" s="16"/>
+      <c r="G403" s="17"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
       <c r="J403" s="6"/>
@@ -9012,7 +9426,7 @@
       <c r="B404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="7"/>
-      <c r="G404" s="16"/>
+      <c r="G404" s="17"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
       <c r="J404" s="6"/>
@@ -9023,7 +9437,7 @@
       <c r="B405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="7"/>
-      <c r="G405" s="16"/>
+      <c r="G405" s="17"/>
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
       <c r="J405" s="6"/>
@@ -9034,7 +9448,7 @@
       <c r="B406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="7"/>
-      <c r="G406" s="16"/>
+      <c r="G406" s="17"/>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
       <c r="J406" s="6"/>
@@ -9045,7 +9459,7 @@
       <c r="B407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="7"/>
-      <c r="G407" s="16"/>
+      <c r="G407" s="17"/>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
       <c r="J407" s="6"/>
@@ -9056,7 +9470,7 @@
       <c r="B408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="7"/>
-      <c r="G408" s="16"/>
+      <c r="G408" s="17"/>
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
       <c r="J408" s="6"/>
@@ -9067,7 +9481,7 @@
       <c r="B409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="7"/>
-      <c r="G409" s="16"/>
+      <c r="G409" s="17"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
       <c r="J409" s="6"/>
@@ -9078,7 +9492,7 @@
       <c r="B410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="7"/>
-      <c r="G410" s="16"/>
+      <c r="G410" s="17"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
       <c r="J410" s="6"/>
@@ -9089,7 +9503,7 @@
       <c r="B411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="7"/>
-      <c r="G411" s="16"/>
+      <c r="G411" s="17"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
       <c r="J411" s="6"/>
@@ -9100,7 +9514,7 @@
       <c r="B412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="7"/>
-      <c r="G412" s="16"/>
+      <c r="G412" s="17"/>
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="6"/>
@@ -9111,7 +9525,7 @@
       <c r="B413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="7"/>
-      <c r="G413" s="16"/>
+      <c r="G413" s="17"/>
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
       <c r="J413" s="6"/>
@@ -9122,7 +9536,7 @@
       <c r="B414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="7"/>
-      <c r="G414" s="16"/>
+      <c r="G414" s="17"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
       <c r="J414" s="6"/>
@@ -9133,7 +9547,7 @@
       <c r="B415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="7"/>
-      <c r="G415" s="16"/>
+      <c r="G415" s="17"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
       <c r="J415" s="6"/>
@@ -9144,7 +9558,7 @@
       <c r="B416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="7"/>
-      <c r="G416" s="16"/>
+      <c r="G416" s="17"/>
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
       <c r="J416" s="6"/>
@@ -9155,7 +9569,7 @@
       <c r="B417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="7"/>
-      <c r="G417" s="16"/>
+      <c r="G417" s="17"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
       <c r="J417" s="6"/>
@@ -9166,7 +9580,7 @@
       <c r="B418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="7"/>
-      <c r="G418" s="16"/>
+      <c r="G418" s="17"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
       <c r="J418" s="6"/>
@@ -9177,7 +9591,7 @@
       <c r="B419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="7"/>
-      <c r="G419" s="16"/>
+      <c r="G419" s="17"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
       <c r="J419" s="6"/>
@@ -9188,76 +9602,76 @@
       <c r="B420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="7"/>
-      <c r="G420" s="16"/>
+      <c r="G420" s="17"/>
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
+      <c r="L420" s="6"/>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="7"/>
-      <c r="G421" s="16"/>
+      <c r="G421" s="17"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
+      <c r="L421" s="6"/>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="7"/>
-      <c r="G422" s="16"/>
+      <c r="G422" s="17"/>
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
       <c r="J422" s="6"/>
       <c r="K422" s="6"/>
+      <c r="L422" s="6"/>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="7"/>
-      <c r="G423" s="16"/>
+      <c r="G423" s="17"/>
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
-      <c r="L423" s="6"/>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="7"/>
-      <c r="G424" s="16"/>
+      <c r="G424" s="17"/>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
       <c r="J424" s="6"/>
       <c r="K424" s="6"/>
-      <c r="L424" s="6"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="7"/>
-      <c r="G425" s="16"/>
+      <c r="G425" s="17"/>
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
-      <c r="L425" s="6"/>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="7"/>
-      <c r="G426" s="16"/>
+      <c r="G426" s="17"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
       <c r="J426" s="6"/>
@@ -9268,7 +9682,7 @@
       <c r="B427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="7"/>
-      <c r="G427" s="16"/>
+      <c r="G427" s="17"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
       <c r="J427" s="6"/>
@@ -9279,7 +9693,7 @@
       <c r="B428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="7"/>
-      <c r="G428" s="16"/>
+      <c r="G428" s="17"/>
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
       <c r="J428" s="6"/>
@@ -9290,7 +9704,7 @@
       <c r="B429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="7"/>
-      <c r="G429" s="16"/>
+      <c r="G429" s="17"/>
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
       <c r="J429" s="6"/>
@@ -9301,7 +9715,7 @@
       <c r="B430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="7"/>
-      <c r="G430" s="16"/>
+      <c r="G430" s="17"/>
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
       <c r="J430" s="6"/>
@@ -9312,7 +9726,7 @@
       <c r="B431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="7"/>
-      <c r="G431" s="16"/>
+      <c r="G431" s="17"/>
       <c r="H431" s="7"/>
       <c r="I431" s="7"/>
       <c r="J431" s="6"/>
@@ -9323,18 +9737,19 @@
       <c r="B432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="7"/>
-      <c r="G432" s="16"/>
+      <c r="G432" s="17"/>
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
       <c r="J432" s="6"/>
       <c r="K432" s="6"/>
+      <c r="L432" s="6"/>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="7"/>
-      <c r="G433" s="16"/>
+      <c r="G433" s="17"/>
       <c r="H433" s="7"/>
       <c r="I433" s="7"/>
       <c r="J433" s="6"/>
@@ -9345,7 +9760,7 @@
       <c r="B434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="7"/>
-      <c r="G434" s="16"/>
+      <c r="G434" s="17"/>
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
       <c r="J434" s="6"/>
@@ -9356,19 +9771,18 @@
       <c r="B435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="7"/>
-      <c r="G435" s="16"/>
+      <c r="G435" s="17"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
-      <c r="L435" s="6"/>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="7"/>
-      <c r="G436" s="16"/>
+      <c r="G436" s="17"/>
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
       <c r="J436" s="6"/>
@@ -9379,7 +9793,7 @@
       <c r="B437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="7"/>
-      <c r="G437" s="16"/>
+      <c r="G437" s="17"/>
       <c r="H437" s="7"/>
       <c r="I437" s="7"/>
       <c r="J437" s="6"/>
@@ -9390,7 +9804,7 @@
       <c r="B438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="7"/>
-      <c r="G438" s="16"/>
+      <c r="G438" s="17"/>
       <c r="H438" s="7"/>
       <c r="I438" s="7"/>
       <c r="J438" s="6"/>
@@ -9401,7 +9815,7 @@
       <c r="B439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="7"/>
-      <c r="G439" s="16"/>
+      <c r="G439" s="17"/>
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
       <c r="J439" s="6"/>
@@ -9412,7 +9826,7 @@
       <c r="B440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="7"/>
-      <c r="G440" s="16"/>
+      <c r="G440" s="17"/>
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
       <c r="J440" s="6"/>
@@ -9423,7 +9837,7 @@
       <c r="B441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="7"/>
-      <c r="G441" s="16"/>
+      <c r="G441" s="17"/>
       <c r="H441" s="7"/>
       <c r="I441" s="7"/>
       <c r="J441" s="6"/>
@@ -9434,7 +9848,7 @@
       <c r="B442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="7"/>
-      <c r="G442" s="16"/>
+      <c r="G442" s="17"/>
       <c r="H442" s="7"/>
       <c r="I442" s="7"/>
       <c r="J442" s="6"/>
@@ -9445,7 +9859,7 @@
       <c r="B443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="7"/>
-      <c r="G443" s="16"/>
+      <c r="G443" s="17"/>
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
       <c r="J443" s="6"/>
@@ -9456,18 +9870,19 @@
       <c r="B444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="7"/>
-      <c r="G444" s="16"/>
+      <c r="G444" s="17"/>
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
       <c r="J444" s="6"/>
       <c r="K444" s="6"/>
+      <c r="L444" s="6"/>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="7"/>
-      <c r="G445" s="16"/>
+      <c r="G445" s="17"/>
       <c r="H445" s="7"/>
       <c r="I445" s="7"/>
       <c r="J445" s="6"/>
@@ -9478,7 +9893,7 @@
       <c r="B446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="7"/>
-      <c r="G446" s="16"/>
+      <c r="G446" s="17"/>
       <c r="H446" s="7"/>
       <c r="I446" s="7"/>
       <c r="J446" s="6"/>
@@ -9489,200 +9904,181 @@
       <c r="B447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="7"/>
-      <c r="G447" s="16"/>
+      <c r="G447" s="17"/>
       <c r="H447" s="7"/>
       <c r="I447" s="7"/>
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
-      <c r="L447" s="6"/>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="7"/>
-      <c r="G448" s="16"/>
+      <c r="G448" s="17"/>
       <c r="H448" s="7"/>
       <c r="I448" s="7"/>
       <c r="J448" s="6"/>
       <c r="K448" s="6"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="7"/>
-      <c r="G449" s="16"/>
+      <c r="G449" s="17"/>
       <c r="H449" s="7"/>
       <c r="I449" s="7"/>
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="7"/>
-      <c r="G450" s="16"/>
+      <c r="G450" s="17"/>
       <c r="H450" s="7"/>
       <c r="I450" s="7"/>
       <c r="J450" s="6"/>
       <c r="K450" s="6"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="7"/>
-      <c r="G451" s="16"/>
+      <c r="G451" s="17"/>
       <c r="H451" s="7"/>
       <c r="I451" s="7"/>
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="7"/>
-      <c r="G452" s="16"/>
+      <c r="G452" s="17"/>
       <c r="H452" s="7"/>
       <c r="I452" s="7"/>
       <c r="J452" s="6"/>
       <c r="K452" s="6"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="7"/>
-      <c r="G453" s="16"/>
+      <c r="G453" s="17"/>
       <c r="H453" s="7"/>
       <c r="I453" s="7"/>
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L453" s="6"/>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="7"/>
-      <c r="G454" s="16"/>
+      <c r="G454" s="17"/>
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
       <c r="J454" s="6"/>
       <c r="K454" s="6"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="7"/>
-      <c r="G455" s="16"/>
+      <c r="G455" s="17"/>
       <c r="H455" s="7"/>
       <c r="I455" s="7"/>
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="7"/>
-      <c r="G456" s="16"/>
+      <c r="G456" s="17"/>
       <c r="H456" s="7"/>
       <c r="I456" s="7"/>
       <c r="J456" s="6"/>
       <c r="K456" s="6"/>
-      <c r="L456" s="6"/>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="7"/>
-      <c r="G457" s="16"/>
+      <c r="G457" s="17"/>
       <c r="H457" s="7"/>
       <c r="I457" s="7"/>
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="7"/>
-      <c r="G458" s="16"/>
+      <c r="G458" s="17"/>
       <c r="H458" s="7"/>
       <c r="I458" s="7"/>
-      <c r="J458" s="6"/>
       <c r="K458" s="6"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="7"/>
-      <c r="G459" s="16"/>
+      <c r="G459" s="17"/>
       <c r="H459" s="7"/>
       <c r="I459" s="7"/>
-      <c r="J459" s="6"/>
       <c r="K459" s="6"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="7"/>
-      <c r="G460" s="16"/>
+      <c r="G460" s="17"/>
       <c r="H460" s="7"/>
       <c r="I460" s="7"/>
-      <c r="J460" s="6"/>
       <c r="K460" s="6"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="7"/>
-      <c r="G461" s="16"/>
+      <c r="G461" s="17"/>
       <c r="H461" s="7"/>
       <c r="I461" s="7"/>
       <c r="K461" s="6"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
-      <c r="B462" s="6"/>
-      <c r="E462" s="6"/>
-      <c r="F462" s="7"/>
-      <c r="G462" s="16"/>
-      <c r="H462" s="7"/>
-      <c r="I462" s="7"/>
       <c r="K462" s="6"/>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L462" s="6"/>
+      <c r="M462" s="6"/>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
-      <c r="B463" s="6"/>
-      <c r="E463" s="6"/>
-      <c r="F463" s="7"/>
-      <c r="G463" s="16"/>
-      <c r="H463" s="7"/>
-      <c r="I463" s="7"/>
-      <c r="K463" s="6"/>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L463" s="6"/>
+      <c r="M463" s="6"/>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
-      <c r="B464" s="6"/>
-      <c r="E464" s="6"/>
-      <c r="F464" s="7"/>
-      <c r="G464" s="16"/>
-      <c r="H464" s="7"/>
-      <c r="I464" s="7"/>
-      <c r="K464" s="6"/>
+      <c r="L464" s="6"/>
+      <c r="M464" s="6"/>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
-      <c r="K465" s="6"/>
       <c r="L465" s="6"/>
       <c r="M465" s="6"/>
     </row>
@@ -9702,17 +10098,14 @@
       <c r="M468" s="6"/>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A469" s="6"/>
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A471" s="6"/>
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
     </row>
@@ -10196,31 +10589,19 @@
       <c r="L591" s="6"/>
       <c r="M591" s="6"/>
     </row>
-    <row r="592" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L592" s="6"/>
-      <c r="M592" s="6"/>
-    </row>
-    <row r="593" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L593" s="6"/>
-      <c r="M593" s="6"/>
-    </row>
-    <row r="594" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L594" s="6"/>
-      <c r="M594" s="6"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:F3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10236,15 +10617,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1333500</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2933700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:colOff>1600200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>723900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
